--- a/Livestock Migration In the United Kingdom analysis.xlsx
+++ b/Livestock Migration In the United Kingdom analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\UK Job Applications\Applied\Animal &amp; Plant Agency\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78985E76-3C15-4FDF-9D14-83D48C180F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E47D69A-5741-4CE7-9064-BA75DF68976E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -3812,9 +3812,6 @@
     <t>Reason for creation/update</t>
   </si>
   <si>
-    <t>Animal and Plant Health Agency Interview</t>
-  </si>
-  <si>
     <t>Total No. of Application</t>
   </si>
   <si>
@@ -3834,6 +3831,9 @@
   </si>
   <si>
     <t>Not Applicable in this event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Animal and Plant Health Agency </t>
   </si>
 </sst>
 </file>
@@ -4128,7 +4128,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Application Peak Periods!MovementTrendsOverTime</c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Application Peak Periods!MovementTrendsOverTime</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -5886,7 +5886,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Approval Rate Analysis!Approval Rate</c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Approval Rate Analysis!Approval Rate</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6354,7 +6354,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Movement Type Analysis!Movement Subtype Analysis</c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Movement Type Analysis!Movement Subtype Analysis</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -6807,7 +6807,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Source-Destination Analysis!Source-Destination</c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Source-Destination Analysis!Source-Destination</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -7373,7 +7373,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Source-Destination Analysis!PivotTable5</c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Source-Destination Analysis!PivotTable5</c:name>
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
@@ -7889,7 +7889,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Interview Solution.xlsx]Premise Type Analysis!Premise Type </c:name>
+    <c:name>[Livestock Migration In the United Kingdom analysis.xlsx]Premise Type Analysis!Premise Type </c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -28445,7 +28445,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22F2813F-E89A-4DCA-8E49-240C471AC995}" name="MovementTrendsOverTime" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Submitted Applications">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{22F2813F-E89A-4DCA-8E49-240C471AC995}" name="MovementTrendsOverTime" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Submitted Applications">
   <location ref="B3:C227" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -30400,7 +30400,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{713A9648-A8F3-4A5E-B9F5-FD18AC96C619}" name="Approval Rate" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Application Status">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{713A9648-A8F3-4A5E-B9F5-FD18AC96C619}" name="Approval Rate" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Application Status">
   <location ref="B3:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -31504,7 +31504,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAB083BC-02F3-4901-B990-5C3C2AF9E369}" name="Movement Subtype Analysis" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CAB083BC-02F3-4901-B990-5C3C2AF9E369}" name="Movement Subtype Analysis" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="B3:C13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -32640,7 +32640,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACD76069-2AFB-4FCF-8237-492949BE6401}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Destination Premise Local Authority">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ACD76069-2AFB-4FCF-8237-492949BE6401}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" rowHeaderCaption="Destination Premise Local Authority">
   <location ref="B25:C41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -34023,7 +34023,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F17E8BF0-B2AE-4071-8315-7C6D72D4436F}" name="Source-Destination" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Source Premise Local Authority">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F17E8BF0-B2AE-4071-8315-7C6D72D4436F}" name="Source-Destination" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Source Premise Local Authority">
   <location ref="B3:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -35262,7 +35262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57552B45-56F1-4A81-81B9-B1ECF002F887}" name="Premise Type " cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Destination Premise Type">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{57552B45-56F1-4A81-81B9-B1ECF002F887}" name="Premise Type " cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Destination Premise Type">
   <location ref="B3:C17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0">
@@ -36727,7 +36727,7 @@
   <dimension ref="B3:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36779,7 +36779,7 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="18" t="s">
-        <v>1255</v>
+        <v>1262</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -36794,11 +36794,11 @@
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="29" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -36816,7 +36816,7 @@
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="22"/>
@@ -36828,16 +36828,16 @@
     </row>
     <row r="11" spans="2:14" ht="36.6" x14ac:dyDescent="0.3">
       <c r="B11" s="25" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1256</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>1258</v>
-      </c>
       <c r="E11" s="26" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
